--- a/Apitest/OUTPUT/otherMails.xlsx
+++ b/Apitest/OUTPUT/otherMails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leger\OneDrive\Documents\UiPath\BulkQueueError\Apitest\OUTPUT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9002492-7196-493A-A643-EBEF33F1086B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15979CE6-0F71-4204-B33C-49751EA4ED14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="4125" yWindow="1815" windowWidth="18000" windowHeight="9810" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <x:si>
     <x:t>emails</x:t>
   </x:si>
@@ -55,148 +55,248 @@
     <x:t>Error</x:t>
   </x:si>
   <x:si>
-    <x:t>french-digest-noreply@quora.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pourquoi Terence Tao n'intègre-t-il pas une école plus prestigieuse comme Caltech ou...?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sélection de Franck
-Votre sélection Quora
------
-Question : Pourquoi Terence Tao n'intègre-t-il pas une école plus prestigieuse comme Caltech ou le MIT ?
-Réponse de Céleste Pottier
-Je pense que vous ne voyez pas les choses sous le bon angle.
-Ce n'est pas Tao qui bénéficierait du prestige de Caltech ou du MIT, mais l'inverse.
-C'est lui la star !
-Il s'e
-Lire plus : http://fr.quora.com/Pourquoi-Terence-Tao-nintègre-t-il-pas-une-école-plus-prestigieuse-comme-Caltech-ou-le-MIT?top_ans=274560935
------
-Question : Est-ce que les pilotes d'avion ont un code secret pour alerter le personnel de bord quand il y a un problème potentiel, comme un terroriste ?
-Réponse de Laurent Richard
-Oui.
-Je ne vous donnerai pas les codes et les signaux actuels, mais avant le 11 septembre, si une hôtesse de l'air appelait le cockpit sur l'interphone et employait le mot «m
-Lire plus : http://fr.quora.com/Est-ce-que-les-pilotes-davion-ont-un-code-secret-pour-alerter-le-personnel-de-bord-quand-il-y-a-un-problème-potentiel-comme-un-terroriste?top_ans=273307955
------
-Question : Selon vous, quelles sont les qualités requises pour être scénariste ?
-Réponse de Didier Ernotte
-Merci pour la demande de réponse Claire Delavallée [ http://fr.quora.com/profile/Claire-Delavallée ] et Agathe Brillant [ http://fr.quora.com/profile/Agathe-Brillant ]
-Alors 
-Lire plus : http://fr.quora.com/Selon-vous-quelles-sont-les-qualités-requises-pour-être-scénariste?top_ans=278679677
------
-Question : MATLAB est-il plus populaire et plus utile pour faire des recherches par rapport à Python ?
-Réponse de Matt Elbé
-Publié sur Quora en français sur Facebook
-Plus populaire, oui. Malheureusement. Mais cela est en train de changer.
-Matlab reste la référence actuellement parce que tous les chercheurs actuels ont appris à travailler 
-Lire plus : http://fr.quora.com/MATLAB-est-il-plus-populaire-et-plus-utile-pour-faire-des-recherches-par-rapport-à-Python?top_ans=49198286
------
-Question : Quel produit la famille Biden a-t-elle vendu et qui a réussi à rendre toute sa famille millionnaire ?
-Réponse de Joelle Ballestraz
-Rénovation de maisons délabrées.
-Joe Biden a acheté une poignée d'habitation à bas prix, les a rénovées, puis les a revendues.
-—son ancienne maison North Star House [ eu-del
-Lire plus : http://fr.quora.com/Quel-produit-la-famille-Biden-a-t-elle-vendu-et-qui-a-réussi-à-rendre-toute-sa-famille-millionnaire?top_ans=264745282
------
-Question : Comment avoir le meilleur IPTV ?
-Réponse de Susan M.gracia
-Vous pouvez avoir le meilleur service IPTV chez Majestic IPTV [ majestic-iptv-store ], c'est le meilleur que j'ai testé jusqu'au présent, il vous offre des bons service client
-Lire plus : http://fr.quora.com/Comment-avoir-le-meilleur-IPTV?top_ans=274756337
------
-Question : La vitesse de la lumière dans le vide est de 299 792 458 m/s. La grande pyramide de Gizeh a une coordonnée de 29.9792458°N. Que pensez-vous de cette incroyable coïncidence ?
-Réponse de Pierre Leclercq
-_xD83D__xDE02__xD83D__xDE02__xD83D__xDE02_
-Cela me rappelle un ami fan de numérologie et qui m'avait prêté un livre sur la grande pyramide.
-Je l'ai lu, mais par curiosité, ce n'est pas le genre de livre vers lequ
-Lire plus : http://fr.quora.com/La-vitesse-de-la-lumière-dans-le-vide-est-de-299-792-458-m-s-La-grande-pyramide-de-Gizeh-a-une-coordonnée-de-29-9792458-N-Que-pensez-vous-de-cette-incroyable-coïncidence?top_ans=274652227
------
-Question : Comment devenir propriétaire quand on n'a pas de CDI ?
-Réponse de Jean Jacques Chenier
-Pourquoi cette obsession de vouloir devenir propriétaire ? Etre propriétaire quand on n'a pas une situation bien établie est un lourd handicap: c'est un frein à votre mobilité
-Lire plus : http://fr.quora.com/Comment-devenir-propriétaire-quand-on-na-pas-de-CDI?top_ans=267048964
------
-Question : Pourquoi l'Allemagne a-t-elle deux drapeaux ?
-Réponse de Victor Livera
-Voici le drapeau que l'on associe le plus souvent à l'Allemagne, le drapeau civil.
-Il s'agit du drapeau national, utilisé par les autorités non fédérales pour montrer un lien
-Lire plus : http://fr.quora.com/Pourquoi-lAllemagne-a-t-elle-deux-drapeaux?top_ans=274268930
------
-Question : Que se passera-t-il si un variant du Covid-19 se mettait à être mortel à 90% ?
-Réponse de Louis Gabriel
-.
-Paradoxalement, ce serait une bonne nouvelle. Pas pour les malheureux qui l'attrapent, mais pour la société.
-Une épidémie avec une telle mortalité s'éteint tout seule aprè
-Lire plus : http://fr.quora.com/Que-se-passera-t-il-si-un-variant-du-Covid-19-se-mettait-à-être-mortel-à-90?top_ans=271362614
------
-Question : Peut-on devenir riche en étant développeur web ?
-Réponse de Marius Toko
-Il est clair que le métier a le vent en poupe ces temps et parfois bien payé lorsqu'il ya une certaine expertise et maitrise d'une stack de technologies. Mais devenir riche da
-Lire plus : http://fr.quora.com/Peut-on-devenir-riche-en-étant-développeur-web?top_ans=178149309
------
------
-Pour contrôler les e-mails que nous vous envoyons, rendez-vous sur : https://fr.quora.com/qemail/tc?aoid&amp;aoty=14&amp;aty=4&amp;cp=0&amp;et=2&amp;id=d5dd35bb5d6e4c3b9dddb7392c48e2c5&amp;uid=1E0wfZgw7kr
-Pour ne plus recevoir ce type d'e-mails, rendez-vous sur : http://fr.quora.com/email_optout/qemail_unsubscribe?email_track_id=d5dd35bb5d6e4c3b9dddb7392c48e2c5&amp;t=1619546092946942&amp;token=eff8b4b2216aedc9c33cf5dd2995b12f09b9881ff4c90396168c1a1c7c48467d2aa317279ca4ab04b1d11e8a3e60c8007afca9435248ba71497187ba8cea6fe3&amp;type=2&amp;uid=298800788</x:t>
+    <x:t>armand_thiery_homme@news.armandthiery.fr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Indigo vs. Kaki</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Livraison offerte à domicile dès 59 €
+d'achats &amp; retours gratuits
+Afficher la version en ligne (
+https://lien.armandthiery.fr/u/gm.php?prm=8aiaziX90S_765683290_6419026_174505&amp;_esuh=$6$a44e482e57789033f6ae5b29b34a7201fa351d5e19243a84948f1c3080029eb9
+)
+Armand Thiery (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2F
+)
+HOMME (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2FHomme-c-1.htm
+)
+FEMME (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2FFemme-c-2.htm
+)
+CARTE CADEAUX (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2Fcartes_cadeaux.cfm
+)
+CARTE FIDÉLITÉ (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2Fespace_fidelite.cfm
+)
+NOS MAGASINS (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2Fmagasins%2F
+)
+Indigo vs kaki (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2F-s-4448.htm
+)
+La couleur de l'indigo pour un look
+estival (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2F-s-4448.htm
+)
+Idée look + on aime les motifs clairs
+associés au jean ! (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2F-s-4448.htm
+)
+Le caractère du kaki pour un look
+aventurier (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2F-s-4448.htm
+)
+Mix &amp; match (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2F-s-4448.htm
+)
+Paiement sécurisé (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Fcontent%2Ffr%2Fcontenu%2Fconditions_generales_de_vente.cfm%23art5
+)
+100% PAIEMENT SECURISÉ (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Fcontent%2Ffr%2Fcontenu%2Fconditions_generales_de_vente.cfm%23art5
+)
+Livraison gratuite en magasin
+en 48h (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Fcontent%2Ffr%2Fcontenu%2Fconditions_generales_de_vente.cfm%23art6
+)
+LIVRAISON OFFERTE
+À DOMICILE DÈS 59 € (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Fcontent%2Ffr%2Fcontenu%2Fconditions_generales_de_vente.cfm%23art6
+)
+Retour gratuit en magasin (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Fcontent%2Ffr%2Fcontenu%2Fconditions_generales_de_vente.cfm%23art7
+)
+RETOUR
+GRATUIT (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Fcontent%2Ffr%2Fcontenu%2Fconditions_generales_de_vente.cfm%23art7
+)
+NOUS CONTACTER (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2Fcontact.cfm
+)
+SERVICE CLIENT &amp; FIDÉLITÉ (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2Fcontact.cfm
+)
+Tél. 09 69 39 54 10*09 69 39
+54 10* (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2Fcontact.cfm
+)
+REJOIGNEZ-NOUS SUR
+Facebook (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.facebook.com%2FARMANDTHIERY%2F
+)
+Twitter (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Ftwitter.com%2Farmandthiery
+)
+Instagram (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.instagram.com%2Farmandthiery%2F%3Fhl%3Dfr
+)
+NOS MAGASINS (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2Fmagasins%2F
+)
+Nos magasins (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_H_NL_indigo_kaki&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2Fmagasins%2F
+)
+*N° cristal, coût d'un appel local, appel non surtaxé, ouvert du
+lundi au vendredi de 10h à 18h.
+Armand Thiery s'engage à vous
+proposer une large gamme de services :
+- livraison offerte à domicile &amp; en point retrait dès
+59 € d'achats,
+- retour gratuit jusqu'à 30 jours
+après réception de la commande,
+- un paiement 100% sécurisé,
+- un service client disponible par
+téléphone et par mail,
+- le respect de la confidentialité de
+vos données,
+- un site disponible 24h/24h, 7J/7J..
+Si vous souhaitez vous désabonner,
+cliquez ici (
+https://service.armandthiery.fr/unsubscribe/index.html?uid=$userid$&amp;cid=6419026&amp;llid=174505
+)
+</x:t>
   </x:si>
   <x:si>
     <x:t>Too Long</x:t>
   </x:si>
   <x:si>
-    <x:t>no-reply@e.udemymail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>It’s Back! Latest Courses - $9.99!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jobalerts-noreply@linkedin.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6 nouvelles offres d’emploi pour “rpa”</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LinkedIn |  Votre alerte Emploi pour rpa (France)
----------------------------------------------------------
-Développeur RPA confirmé H/F Aix-en-Provence
-Capgemini
-Provence-Alpes-Côte d’Azur, France
-Voir l’offre d’emploi : https://www.linkedin.com/comm/jobs/view/2521487003?alertAction=markasviewed&amp;savedSearchAuthToken=1%26AQFLPfobFIQtcAAAAXkVg_WGF6sHasUy8mQwd26JziXXvsDJNwAoLWQtEl-yuOzu0_7nOeUQCpGuFmqfY6aSf5fwKtPMH37aPk_6ZRoIWH5krC0mXbjZysM2XKgvmFYaQw0GzeG9k7s_mEvSeVK4kDhqWwIrhmcZH6du2w1JvVTS8OuVW2NhvNJVb2PDbqVMtZUAcRFS4KAIDrw9KEkGRGjyUCPOUPG79eGuApdj00LYyeQjQBe-ifBkICcdQQ_5MV-BIjyQimJpZmNqQpgVch0XKV5eMPTx74s65ls0Lr2SOtHZ9ULE-Tw%26ASApXOvtXDeaiDBAMVUKZoYpJYLc&amp;savedSearchId=910509853&amp;refId=6def5bb2-f38d-4132-a7fe-5cb9e3a147d1&amp;trackingId=wHj%2FF9bT12Xu9zp3cnoTqw%3D%3D&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=0bDDiuWxJnU9I1&amp;trk=eml-email_job_alert_digest_01-job_alert-2-member_details_nontag_mercado&amp;trkEmail=eml-email_job_alert_digest_01-job_alert-2-member_details_nontag_mercado-null-3ecr6y%7Eko0mdeos%7Ehz-null-jobs%7Eview&amp;lipi=urn%3Ali%3Apage%3Aemail_email_job_alert_digest_01%3BYaM%2BlHL3TlygohfJRVb0Jg%3D%3D
----------------------------------------------------------
-(Futur) Spécialiste de la RPA F/H
-Talan
-Paris, Île-de-France, France
-Voir l’offre d’emploi : https://www.linkedin.com/comm/jobs/view/2498083943?alertAction=markasviewed&amp;savedSearchAuthToken=1%26AQFLPfobFIQtcAAAAXkVg_WGF6sHasUy8mQwd26JziXXvsDJNwAoLWQtEl-yuOzu0_7nOeUQCpGuFmqfY6aSf5fwKtPMH37aPk_6ZRoIWH5krC0mXbjZysM2XKgvmFYaQw0GzeG9k7s_mEvSeVK4kDhqWwIrhmcZH6du2w1JvVTS8OuVW2NhvNJVb2PDbqVMtZUAcRFS4KAIDrw9KEkGRGjyUCPOUPG79eGuApdj00LYyeQjQBe-ifBkICcdQQ_5MV-BIjyQimJpZmNqQpgVch0XKV5eMPTx74s65ls0Lr2SOtHZ9ULE-Tw%26ASApXOvtXDeaiDBAMVUKZoYpJYLc&amp;savedSearchId=910509853&amp;refId=6def5bb2-f38d-4132-a7fe-5cb9e3a147d1&amp;trackingId=cYW99ZoZnPNiVIvPpUD7IA%3D%3D&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=0bDDiuWxJnU9I1&amp;trk=eml-email_job_alert_digest_01-job_alert-3-member_details_nontag_mercado&amp;trkEmail=eml-email_job_alert_digest_01-job_alert-3-member_details_nontag_mercado-null-3ecr6y%7Eko0mdeos%7Ehz-null-jobs%7Eview&amp;lipi=urn%3Ali%3Apage%3Aemail_email_job_alert_digest_01%3BYaM%2BlHL3TlygohfJRVb0Jg%3D%3D
----------------------------------------------------------
-Développeur RPA
-1UP
-Île-de-France, France
-Voir l’offre d’emploi : https://www.linkedin.com/comm/jobs/view/2498063549?alertAction=markasviewed&amp;savedSearchAuthToken=1%26AQFLPfobFIQtcAAAAXkVg_WGF6sHasUy8mQwd26JziXXvsDJNwAoLWQtEl-yuOzu0_7nOeUQCpGuFmqfY6aSf5fwKtPMH37aPk_6ZRoIWH5krC0mXbjZysM2XKgvmFYaQw0GzeG9k7s_mEvSeVK4kDhqWwIrhmcZH6du2w1JvVTS8OuVW2NhvNJVb2PDbqVMtZUAcRFS4KAIDrw9KEkGRGjyUCPOUPG79eGuApdj00LYyeQjQBe-ifBkICcdQQ_5MV-BIjyQimJpZmNqQpgVch0XKV5eMPTx74s65ls0Lr2SOtHZ9ULE-Tw%26ASApXOvtXDeaiDBAMVUKZoYpJYLc&amp;savedSearchId=910509853&amp;refId=6def5bb2-f38d-4132-a7fe-5cb9e3a147d1&amp;trackingId=zBGWH%2FrlKidnlyvjbjHE4g%3D%3D&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=0bDDiuWxJnU9I1&amp;trk=eml-email_job_alert_digest_01-job_alert-4-member_details_nontag_mercado&amp;trkEmail=eml-email_job_alert_digest_01-job_alert-4-member_details_nontag_mercado-null-3ecr6y%7Eko0mdeos%7Ehz-null-jobs%7Eview&amp;lipi=urn%3Ali%3Apage%3Aemail_email_job_alert_digest_01%3BYaM%2BlHL3TlygohfJRVb0Jg%3D%3D
----------------------------------------------------------
-Développeur RPA junior H/F Aix-en-Provence
-Capgemini
-Provence-Alpes-Côte d’Azur, France
-Voir l’offre d’emploi : https://www.linkedin.com/comm/jobs/view/2521484147?alertAction=markasviewed&amp;savedSearchAuthToken=1%26AQFLPfobFIQtcAAAAXkVg_WGF6sHasUy8mQwd26JziXXvsDJNwAoLWQtEl-yuOzu0_7nOeUQCpGuFmqfY6aSf5fwKtPMH37aPk_6ZRoIWH5krC0mXbjZysM2XKgvmFYaQw0GzeG9k7s_mEvSeVK4kDhqWwIrhmcZH6du2w1JvVTS8OuVW2NhvNJVb2PDbqVMtZUAcRFS4KAIDrw9KEkGRGjyUCPOUPG79eGuApdj00LYyeQjQBe-ifBkICcdQQ_5MV-BIjyQimJpZmNqQpgVch0XKV5eMPTx74s65ls0Lr2SOtHZ9ULE-Tw%26ASApXOvtXDeaiDBAMVUKZoYpJYLc&amp;savedSearchId=910509853&amp;refId=6def5bb2-f38d-4132-a7fe-5cb9e3a147d1&amp;trackingId=%2BatkHX%2ByP88VIM8100i7Rw%3D%3D&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=0bDDiuWxJnU9I1&amp;trk=eml-email_job_alert_digest_01-job_alert-5-member_details_nontag_mercado&amp;trkEmail=eml-email_job_alert_digest_01-job_alert-5-member_details_nontag_mercado-null-3ecr6y%7Eko0mdeos%7Ehz-null-jobs%7Eview&amp;lipi=urn%3Ali%3Apage%3Aemail_email_job_alert_digest_01%3BYaM%2BlHL3TlygohfJRVb0Jg%3D%3D
----------------------------------------------------------
-Consultant RPA Technique H/F
-onepoint
-Paris, Île-de-France, France
-Voir l’offre d’emploi : https://www.linkedin.com/comm/jobs/view/2506786512?alertAction=markasviewed&amp;savedSearchAuthToken=1%26AQFLPfobFIQtcAAAAXkVg_WGF6sHasUy8mQwd26JziXXvsDJNwAoLWQtEl-yuOzu0_7nOeUQCpGuFmqfY6aSf5fwKtPMH37aPk_6ZRoIWH5krC0mXbjZysM2XKgvmFYaQw0GzeG9k7s_mEvSeVK4kDhqWwIrhmcZH6du2w1JvVTS8OuVW2NhvNJVb2PDbqVMtZUAcRFS4KAIDrw9KEkGRGjyUCPOUPG79eGuApdj00LYyeQjQBe-ifBkICcdQQ_5MV-BIjyQimJpZmNqQpgVch0XKV5eMPTx74s65ls0Lr2SOtHZ9ULE-Tw%26ASApXOvtXDeaiDBAMVUKZoYpJYLc&amp;savedSearchId=910509853&amp;refId=6def5bb2-f38d-4132-a7fe-5cb9e3a147d1&amp;trackingId=sPb0%2F32i9U1hPghAVmO26A%3D%3D&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=0bDDiuWxJnU9I1&amp;trk=eml-email_job_alert_digest_01-job_alert-6-member_details_nontag_mercado&amp;trkEmail=eml-email_job_alert_digest_01-job_alert-6-member_details_nontag_mercado-null-3ecr6y%7Eko0mdeos%7Ehz-null-jobs%7Eview&amp;lipi=urn%3Ali%3Apage%3Aemail_email_job_alert_digest_01%3BYaM%2BlHL3TlygohfJRVb0Jg%3D%3D
----------------------------------------------------------
-Développeur RPA UIPATH F/H
-Carriere-info.fr
-Paris, Île-de-France, France
-Voir l’offre d’emploi : https://www.linkedin.com/comm/jobs/view/2498024890?alertAction=markasviewed&amp;savedSearchAuthToken=1%26AQFLPfobFIQtcAAAAXkVg_WGF6sHasUy8mQwd26JziXXvsDJNwAoLWQtEl-yuOzu0_7nOeUQCpGuFmqfY6aSf5fwKtPMH37aPk_6ZRoIWH5krC0mXbjZysM2XKgvmFYaQw0GzeG9k7s_mEvSeVK4kDhqWwIrhmcZH6du2w1JvVTS8OuVW2NhvNJVb2PDbqVMtZUAcRFS4KAIDrw9KEkGRGjyUCPOUPG79eGuApdj00LYyeQjQBe-ifBkICcdQQ_5MV-BIjyQimJpZmNqQpgVch0XKV5eMPTx74s65ls0Lr2SOtHZ9ULE-Tw%26ASApXOvtXDeaiDBAMVUKZoYpJYLc&amp;savedSearchId=910509853&amp;refId=6def5bb2-f38d-4132-a7fe-5cb9e3a147d1&amp;trackingId=mfEQ%2FItNiyg8xvh2oFstiQ%3D%3D&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=0bDDiuWxJnU9I1&amp;trk=eml-email_job_alert_digest_01-job_alert-7-member_details_nontag_mercado&amp;trkEmail=eml-email_job_alert_digest_01-job_alert-7-member_details_nontag_mercado-null-3ecr6y%7Eko0mdeos%7Ehz-null-jobs%7Eview&amp;lipi=urn%3Ali%3Apage%3Aemail_email_job_alert_digest_01%3BYaM%2BlHL3TlygohfJRVb0Jg%3D%3D
----------------------------------------------------------
-Voir toutes les offres d’emploi sur LinkedIn https://www.linkedin.com/comm/jobs/search?savedSearchId=910509853&amp;origin=JOB_ALERT_EMAIL&amp;alertAction=viewjobs&amp;f_TPR=a1619477190-&amp;savedSearchAuthToken=1%26AQH_SLtB9_lQIgAAAXkVg_WGaK94g16HWxFYj8Iow_Pj79bSv8IHHF3wv8J4lkCE73M417i307naNoTrdxwtELvsazmrprykvb9pPn6m8NxqCtHcQketydVD7pE8XhAHtc7a0oZerxJ5LOI7vv8PD59oBHFwH7iDCQy7lDhcUcsi2HcEAjDqVlHxuZXc-JeAwrkhSAMhHElXV5XWr101vTDgcfv6yAHyMItpryN6JqKRSQ8ufSo7cl1kKg5cH_AprVx1AwZ-SwIXe1gm33IkPwvL3kQ8H0TjEduSLWzr-wcMW4gAYg%26Ac2qRpUpugBB1MztXY01Hpx57__p&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=0bDDiuWxJnU9I1&amp;trk=eml-email_job_alert_digest_01-job_alert-0-member_teaser_mercado&amp;trkEmail=eml-email_job_alert_digest_01-job_alert-0-member_teaser_mercado-null-3ecr6y%7Eko0mdeos%7Ehz-null-jobs%7Ejserp%7Esearch&amp;lipi=urn%3Ali%3Apage%3Aemail_email_job_alert_digest_01%3BYaM%2BlHL3TlygohfJRVb0Jg%3D%3D
----------------------------------------------------------
-Découvrez les offres d’emploi pour lesquels vous seriez un bon candidat
-Essayez Premium gratuitement :  https://www.linkedin.com/comm/premium/products/?family=jss&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=0bDDiuWxJnU9I1&amp;trk=eml-email_job_alert_digest_01-job_alert-15-premium_upsell_top_applicant_mercado&amp;trkEmail=eml-email_job_alert_digest_01-job_alert-15-premium_upsell_top_applicant_mercado-null-3ecr6y%7Eko0mdeos%7Ehz-null-neptune%2Fpremium%2Eproducts&amp;lipi=urn%3Ali%3Apage%3Aemail_email_job_alert_digest_01%3BYaM%2BlHL3TlygohfJRVb0Jg%3D%3D
-.....................................
-Gérez vos alertes Emploi : https://www.linkedin.com/comm/jobs/alerts?midToken=AQHMiZj-39I5zQ&amp;amp;midSig=0bDDiuWxJnU9I1&amp;amp;trk=eml-email_job_alert_digest_01-footer-13-manage_alert&amp;amp;trkEmail=eml-email_job_alert_digest_01-footer-13-manage_alert-null-3ecr6y%7Eko0mdeos%7Ehz-null-job%7Ealert%7Emanager&amp;amp;lipi=urn%3Ali%3Apage%3Aemail_email_job_alert_digest_01%3BYaM%2BlHL3TlygohfJRVb0Jg%3D%3D
-Se désabonner : https://www.linkedin.com/e/v2?e=3ecr6y-ko0mdeos-hz&amp;amp;lipi=urn%3Ali%3Apage%3Aemail_email_job_alert_digest_01%3BYaM%2BlHL3TlygohfJRVb0Jg%3D%3D&amp;amp;a=jobs-jserp-search-mirror&amp;amp;midToken=AQHMiZj-39I5zQ&amp;amp;midSig=0bDDiuWxJnU9I1&amp;amp;ek=email_job_alert_digest_01&amp;amp;li=14&amp;amp;m=footer&amp;amp;ts=delete_alert&amp;amp;alertAction=delete&amp;amp;savedSearchId=910509853
-Aide : https://www.linkedin.com/e/v2?e=3ecr6y-ko0mdeos-hz&amp;lipi=urn%3Ali%3Apage%3Aemail_email_job_alert_digest_01%3BYaM%2BlHL3TlygohfJRVb0Jg%3D%3D&amp;a=customerServiceUrl&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=0bDDiuWxJnU9I1&amp;ek=email_job_alert_digest_01&amp;li=37&amp;m=footer&amp;ts=help&amp;articleId=67
-Vous recevez des e-mails de notifications de LinkedIn.
-Cet e-mail est destiné à Franck MONGO (Développeur RPA &amp; AI _xD83E__xDD16_ | Ingénieur Nucléaire).
-Découvrez pourquoi nous précisons ceci : https://www.linkedin.com/e/v2?e=3ecr6y-ko0mdeos-hz&amp;lipi=urn%3Ali%3Apage%3Aemail_email_job_alert_digest_01%3BYaM%2BlHL3TlygohfJRVb0Jg%3D%3D&amp;a=customerServiceUrl&amp;midToken=AQHMiZj-39I5zQ&amp;midSig=0bDDiuWxJnU9I1&amp;ek=email_job_alert_digest_01&amp;articleId=4788
-© 2021 LinkedIn Ireland Unlimited Company, Wilton Plaza, Wilton Place, Dublin 2. LinkedIn est le nom commercial déposé de LinkedIn Ireland Unlimited Company. LinkedIn et le logo de LinkedIn sont des marques déposées de LinkedIn.</x:t>
+    <x:t>armand_thiery_femme@news.armandthiery.fr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Happy Couleurs...</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Livraison offerte à domicile dès 59 €
+d'achats &amp; retours gratuits
+Afficher la version en ligne (
+https://lien.armandthiery.fr/u/gm.php?prm=8aiaziX90S_765683290_6418619_28864&amp;_esuh=$6$0bcc593b4591b6fa306ab9989cbf23d98284e3b983bb94a867ef3506bfea89b0
+)
+Armand Thiery (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2F
+)
+HOMME (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2FHomme-c-1.htm
+)
+FEMME (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2FFemme-c-2.htm
+)
+CARTE CADEAUX (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2Fcartes_cadeaux.cfm
+)
+CARTE FIDÉLITÉ (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2Fespace_fidelite.cfm
+)
+NOS MAGASINS (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2Fmagasins%2F
+)
+Happy couleurs (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2F-s-4447.htm
+)
+Faites-vous plaisir avec notre sélection
+100 % couleurs vives. (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2F-s-4447.htm
+)
+Acidulées, gaies et vitaminées, elles
+mettront de la bonne humeur dans votre journée ! (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2F-s-4447.htm
+)
+Happy couleurs (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2F-s-4447.htm
+)
+Happy couleurs (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2F-s-4447.htm
+)
+La pantalon 7/8ème jaune safran (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2F-s-4447.htm
+)
+La robe en maille rouge fleuri (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2F-s-4447.htm
+)
+DÉCOUVRIR TOUTES LES COULEURS (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2F-s-4447.htm
+)
+Paiement sécurisé (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Fcontent%2Ffr%2Fcontenu%2Fconditions_generales_de_vente.cfm%23art5
+)
+100% PAIEMENT SECURISÉ (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Fcontent%2Ffr%2Fcontenu%2Fconditions_generales_de_vente.cfm%23art5
+)
+Livraison gratuite en magasin
+en 48h (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Fcontent%2Ffr%2Fcontenu%2Fconditions_generales_de_vente.cfm%23art6
+)
+LIVRAISON OFFERTE
+À DOMICILE DÈS 59 € (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Fcontent%2Ffr%2Fcontenu%2Fconditions_generales_de_vente.cfm%23art6
+)
+Retour gratuit en magasin (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Fcontent%2Ffr%2Fcontenu%2Fconditions_generales_de_vente.cfm%23art7
+)
+RETOUR
+GRATUIT (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Fcontent%2Ffr%2Fcontenu%2Fconditions_generales_de_vente.cfm%23art7
+)
+NOUS CONTACTER (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2Fcontact.cfm
+)
+SERVICE CLIENT &amp; FIDÉLITÉ (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2Fcontact.cfm
+)
+Tél. 09 69 39 54 10*09 69 39
+54 10* (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2Fcontact.cfm
+)
+REJOIGNEZ-NOUS SUR
+Facebook (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.facebook.com%2FARMANDTHIERY%2F
+)
+Twitter (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Ftwitter.com%2Farmandthiery
+)
+Instagram (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.instagram.com%2Farmandthiery%2F%3Fhl%3Dfr
+)
+NOS MAGASINS (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2Fmagasins%2F
+)
+Nos magasins (
+https://7lbd4.armandthiery.fr/dynclick/armandthiery/?eml-publisher=Emarsys&amp;eml-name=210427_AT_F_NL_couleurs&amp;eemail=&amp;eurl=https%3A%2F%2Fwww.armandthiery.fr%2Ffr%2Fmagasins%2F
+)
+*N° cristal, coût d'un appel local, appel non surtaxé, ouvert du
+lundi au vendredi de 10h à 18h.
+Armand Thiery s'engage à vous
+proposer une large gamme de services :
+- livraison offerte à domicile &amp; en point retrait dès
+59 € d'achats,
+- retour gratuit jusqu'à 30 jours
+après réception de la commande,
+- un paiement 100% sécurisé,
+- un service client disponible par
+téléphone et par mail,
+- le respect de la confidentialité de
+vos données,
+- un site disponible 24h/24h, 7J/7J..
+Si vous souhaitez vous désabonner,
+cliquez ici (
+https://service.armandthiery.fr/unsubscribe/index.html?uid=$userid$&amp;cid=6418619&amp;llid=28864
+)
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Pitch Guidebook: How To Be Pitch Ready</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -741,117 +841,79 @@
     </x:row>
     <x:row r="2" spans="1:8" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A2" s="7" t="s"/>
-      <x:c r="B2" s="6" t="s"/>
       <x:c r="C2" s="8" t="s"/>
       <x:c r="D2" s="8" t="s"/>
       <x:c r="E2" s="8" t="s"/>
-      <x:c r="F2" s="6" t="s"/>
-      <x:c r="G2" s="6" t="s"/>
-      <x:c r="H2" s="6" t="s"/>
     </x:row>
     <x:row r="3" spans="1:8" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A3" s="6" t="s">
+      <x:c r="C3" s="10" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:8" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A4" s="6" t="s"/>
+      <x:c r="B4" s="6" t="s"/>
+      <x:c r="C4" s="8" t="s"/>
+      <x:c r="D4" s="6" t="s"/>
+      <x:c r="E4" s="6" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:8" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A5" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B3" s="6" t="s">
+      <x:c r="B5" s="6" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C3" s="10" t="s"/>
-      <x:c r="D3" s="6" t="s">
+      <x:c r="C5" s="10" t="s"/>
+      <x:c r="D5" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="E3" s="6" t="s">
+      <x:c r="E5" s="6" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="F3" s="6" t="s"/>
-      <x:c r="G3" s="6" t="s"/>
-      <x:c r="H3" s="6" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:8" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="C4" s="8" t="s"/>
-      <x:c r="F4" s="6" t="s"/>
-      <x:c r="G4" s="6" t="s"/>
-      <x:c r="H4" s="6" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:8" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="C5" s="10" t="s"/>
-      <x:c r="F5" s="6" t="s"/>
-      <x:c r="G5" s="6" t="s"/>
-      <x:c r="H5" s="6" t="s"/>
     </x:row>
     <x:row r="6" spans="1:8" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A6" s="6" t="s"/>
-      <x:c r="B6" s="6" t="s"/>
       <x:c r="C6" s="10" t="s"/>
       <x:c r="D6" s="8" t="s"/>
-      <x:c r="E6" s="6" t="s"/>
-      <x:c r="F6" s="6" t="s"/>
-      <x:c r="G6" s="6" t="s"/>
-      <x:c r="H6" s="6" t="s"/>
     </x:row>
     <x:row r="7" spans="1:8" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A7" s="6" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B7" s="6" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C7" s="10" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D7" s="6" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E7" s="6" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F7" s="6" t="s"/>
-      <x:c r="G7" s="6" t="s"/>
-      <x:c r="H7" s="6" t="s"/>
+      <x:c r="C7" s="10" t="s"/>
     </x:row>
     <x:row r="8" spans="1:8" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A8" s="6" t="s"/>
+      <x:c r="B8" s="6" t="s"/>
       <x:c r="C8" s="10" t="s"/>
-      <x:c r="F8" s="6" t="s"/>
-      <x:c r="G8" s="6" t="s"/>
-      <x:c r="H8" s="6" t="s"/>
+      <x:c r="D8" s="6" t="s"/>
+      <x:c r="E8" s="6" t="s"/>
     </x:row>
     <x:row r="9" spans="1:8" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A9" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B9" s="6" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C9" s="10" t="s"/>
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C9" s="10" t="s">
+        <x:v>11</x:v>
+      </x:c>
       <x:c r="D9" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E9" s="6" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="F9" s="6" t="s"/>
-      <x:c r="G9" s="6" t="s"/>
-      <x:c r="H9" s="6" t="s"/>
     </x:row>
     <x:row r="10" spans="1:8" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A10" s="6" t="s"/>
-      <x:c r="B10" s="6" t="s"/>
       <x:c r="C10" s="10" t="s"/>
       <x:c r="D10" s="8" t="s"/>
-      <x:c r="E10" s="6" t="s"/>
-      <x:c r="F10" s="6" t="s"/>
-      <x:c r="G10" s="6" t="s"/>
-      <x:c r="H10" s="6" t="s"/>
     </x:row>
     <x:row r="11" spans="1:8" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A11" s="6" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B11" s="6" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C11" s="10" t="s">
         <x:v>15</x:v>
-      </x:c>
-      <x:c r="B11" s="6" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C11" s="10" t="s">
-        <x:v>17</x:v>
       </x:c>
       <x:c r="D11" s="8" t="s">
         <x:v>12</x:v>
@@ -859,9 +921,21 @@
       <x:c r="E11" s="6" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="F11" s="6" t="s"/>
-      <x:c r="G11" s="6" t="s"/>
-      <x:c r="H11" s="6" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:8">
+      <x:c r="A12" s="6" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B12" s="6" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C12" s="6" t="s"/>
+      <x:c r="D12" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E12" s="6" t="s">
+        <x:v>8</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
